--- a/Code/finalCode/show.xlsx
+++ b/Code/finalCode/show.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>38799a53-0fc9-4c89-95c6-d9e1986d39cf</t>
+          <t>29ec4dc0-b69c-4a17-a031-a03ad81513ad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -619,9 +619,10 @@
           <t xml:space="preserve">  </t>
         </is>
       </c>
-      <c r="F2">
-        <f> 10000  </f>
-        <v/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10000  </t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
